--- a/doc/thesis/pictures/resultate/loesung1/loesung1-0/loesung1_0_artefakte - Copy.xlsx
+++ b/doc/thesis/pictures/resultate/loesung1/loesung1-0/loesung1_0_artefakte - Copy.xlsx
@@ -10747,11 +10747,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288274216"/>
-        <c:axId val="288270688"/>
+        <c:axId val="251284488"/>
+        <c:axId val="251284880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288274216"/>
+        <c:axId val="251284488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10789,12 +10789,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288270688"/>
+        <c:crossAx val="251284880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288270688"/>
+        <c:axId val="251284880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10841,7 +10841,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288274216"/>
+        <c:crossAx val="251284488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -21106,11 +21106,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288262848"/>
-        <c:axId val="288271472"/>
+        <c:axId val="251286056"/>
+        <c:axId val="251286840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288262848"/>
+        <c:axId val="251286056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="570434000"/>
@@ -21164,12 +21164,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288271472"/>
+        <c:crossAx val="251286840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288271472"/>
+        <c:axId val="251286840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21221,7 +21221,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288262848"/>
+        <c:crossAx val="251286056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -25447,11 +25447,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="288272256"/>
-        <c:axId val="288264024"/>
+        <c:axId val="251991288"/>
+        <c:axId val="251995208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="288272256"/>
+        <c:axId val="251991288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25460,7 +25460,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="288264024"/>
+        <c:crossAx val="251995208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25468,15 +25468,15 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288264024"/>
+        <c:axId val="251995208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -25492,34 +25492,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="288272256"/>
+        <c:crossAx val="251991288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25537,10 +25510,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.38188265371727664"/>
-          <c:y val="0.91256690748908165"/>
-          <c:w val="0.33741934995877676"/>
-          <c:h val="7.5223082323654031E-2"/>
+          <c:x val="0.42543052435448453"/>
+          <c:y val="0.90035689762685478"/>
+          <c:w val="0.22214557474263844"/>
+          <c:h val="9.9643102373145193E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -25558,10 +25531,7 @@
           <a:pPr>
             <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -42411,7 +42381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
